--- a/file/datalophocphan.xlsx
+++ b/file/datalophocphan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK1-Nam4\Cong nghe moi\Do an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA23C549-A7BF-461F-96B5-F98813C77DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4434ABE0-023C-4BC9-9E08-0672A9775569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Mã môn học phần</t>
   </si>
   <si>
-    <t>MHP01</t>
-  </si>
-  <si>
-    <t>MHP02</t>
-  </si>
-  <si>
-    <t>MHP03</t>
-  </si>
-  <si>
     <t>MHP04</t>
   </si>
   <si>
@@ -60,35 +51,29 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>TEST1</t>
-  </si>
-  <si>
-    <t>TEST2</t>
-  </si>
-  <si>
-    <t>TEST3</t>
-  </si>
-  <si>
-    <t>TEST4</t>
+    <t>MHP25</t>
+  </si>
+  <si>
+    <t>LHP57</t>
+  </si>
+  <si>
+    <t>LHP58</t>
+  </si>
+  <si>
+    <t>LHP59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +92,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,10 +121,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,13 +409,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" customWidth="1"/>
@@ -430,27 +424,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -458,75 +452,61 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
